--- a/weather.xlsx
+++ b/weather.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -446,1680 +450,1344 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-11-17T00:00</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45978</v>
       </c>
       <c r="B2" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-11-17T01:00</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45978.04166666666</v>
       </c>
       <c r="B3" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-11-17T02:00</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45978.08333333334</v>
       </c>
       <c r="B4" t="n">
         <v>5.8</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-11-17T03:00</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45978.125</v>
       </c>
       <c r="B5" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-11-17T04:00</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45978.16666666666</v>
       </c>
       <c r="B6" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-11-17T05:00</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45978.20833333334</v>
       </c>
       <c r="B7" t="n">
         <v>5.8</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-11-17T06:00</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45978.25</v>
       </c>
       <c r="B8" t="n">
         <v>5.5</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>2025-11-17T07:00</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45978.29166666666</v>
       </c>
       <c r="B9" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>2025-11-17T08:00</t>
-        </is>
+      <c r="A10" s="2" t="n">
+        <v>45978.33333333334</v>
       </c>
       <c r="B10" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>2025-11-17T09:00</t>
-        </is>
+      <c r="A11" s="2" t="n">
+        <v>45978.375</v>
       </c>
       <c r="B11" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>2025-11-17T10:00</t>
-        </is>
+      <c r="A12" s="2" t="n">
+        <v>45978.41666666666</v>
       </c>
       <c r="B12" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>2025-11-17T11:00</t>
-        </is>
+      <c r="A13" s="2" t="n">
+        <v>45978.45833333334</v>
       </c>
       <c r="B13" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>2025-11-17T12:00</t>
-        </is>
+      <c r="A14" s="2" t="n">
+        <v>45978.5</v>
       </c>
       <c r="B14" t="n">
         <v>7.4</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>2025-11-17T13:00</t>
-        </is>
+      <c r="A15" s="2" t="n">
+        <v>45978.54166666666</v>
       </c>
       <c r="B15" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>2025-11-17T14:00</t>
-        </is>
+      <c r="A16" s="2" t="n">
+        <v>45978.58333333334</v>
       </c>
       <c r="B16" t="n">
         <v>8.4</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>2025-11-17T15:00</t>
-        </is>
+      <c r="A17" s="2" t="n">
+        <v>45978.625</v>
       </c>
       <c r="B17" t="n">
         <v>8.300000000000001</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>2025-11-17T16:00</t>
-        </is>
+      <c r="A18" s="2" t="n">
+        <v>45978.66666666666</v>
       </c>
       <c r="B18" t="n">
         <v>7.9</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>2025-11-17T17:00</t>
-        </is>
+      <c r="A19" s="2" t="n">
+        <v>45978.70833333334</v>
       </c>
       <c r="B19" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>2025-11-17T18:00</t>
-        </is>
+      <c r="A20" s="2" t="n">
+        <v>45978.75</v>
       </c>
       <c r="B20" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>2025-11-17T19:00</t>
-        </is>
+      <c r="A21" s="2" t="n">
+        <v>45978.79166666666</v>
       </c>
       <c r="B21" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>2025-11-17T20:00</t>
-        </is>
+      <c r="A22" s="2" t="n">
+        <v>45978.83333333334</v>
       </c>
       <c r="B22" t="n">
         <v>5.6</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>2025-11-17T21:00</t>
-        </is>
+      <c r="A23" s="2" t="n">
+        <v>45978.875</v>
       </c>
       <c r="B23" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>2025-11-17T22:00</t>
-        </is>
+      <c r="A24" s="2" t="n">
+        <v>45978.91666666666</v>
       </c>
       <c r="B24" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>2025-11-17T23:00</t>
-        </is>
+      <c r="A25" s="2" t="n">
+        <v>45978.95833333334</v>
       </c>
       <c r="B25" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>2025-11-18T00:00</t>
-        </is>
+      <c r="A26" s="2" t="n">
+        <v>45979</v>
       </c>
       <c r="B26" t="n">
         <v>3.6</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>2025-11-18T01:00</t>
-        </is>
+      <c r="A27" s="2" t="n">
+        <v>45979.04166666666</v>
       </c>
       <c r="B27" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>2025-11-18T02:00</t>
-        </is>
+      <c r="A28" s="2" t="n">
+        <v>45979.08333333334</v>
       </c>
       <c r="B28" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>2025-11-18T03:00</t>
-        </is>
+      <c r="A29" s="2" t="n">
+        <v>45979.125</v>
       </c>
       <c r="B29" t="n">
         <v>2.6</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>2025-11-18T04:00</t>
-        </is>
+      <c r="A30" s="2" t="n">
+        <v>45979.16666666666</v>
       </c>
       <c r="B30" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>2025-11-18T05:00</t>
-        </is>
+      <c r="A31" s="2" t="n">
+        <v>45979.20833333334</v>
       </c>
       <c r="B31" t="n">
         <v>2.1</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>2025-11-18T06:00</t>
-        </is>
+      <c r="A32" s="2" t="n">
+        <v>45979.25</v>
       </c>
       <c r="B32" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>2025-11-18T07:00</t>
-        </is>
+      <c r="A33" s="2" t="n">
+        <v>45979.29166666666</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>2025-11-18T08:00</t>
-        </is>
+      <c r="A34" s="2" t="n">
+        <v>45979.33333333334</v>
       </c>
       <c r="B34" t="n">
         <v>2.3</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>2025-11-18T09:00</t>
-        </is>
+      <c r="A35" s="2" t="n">
+        <v>45979.375</v>
       </c>
       <c r="B35" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>2025-11-18T10:00</t>
-        </is>
+      <c r="A36" s="2" t="n">
+        <v>45979.41666666666</v>
       </c>
       <c r="B36" t="n">
         <v>3.8</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>2025-11-18T11:00</t>
-        </is>
+      <c r="A37" s="2" t="n">
+        <v>45979.45833333334</v>
       </c>
       <c r="B37" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>2025-11-18T12:00</t>
-        </is>
+      <c r="A38" s="2" t="n">
+        <v>45979.5</v>
       </c>
       <c r="B38" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>2025-11-18T13:00</t>
-        </is>
+      <c r="A39" s="2" t="n">
+        <v>45979.54166666666</v>
       </c>
       <c r="B39" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>2025-11-18T14:00</t>
-        </is>
+      <c r="A40" s="2" t="n">
+        <v>45979.58333333334</v>
       </c>
       <c r="B40" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>2025-11-18T15:00</t>
-        </is>
+      <c r="A41" s="2" t="n">
+        <v>45979.625</v>
       </c>
       <c r="B41" t="n">
         <v>7.9</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>2025-11-18T16:00</t>
-        </is>
+      <c r="A42" s="2" t="n">
+        <v>45979.66666666666</v>
       </c>
       <c r="B42" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-11-18T17:00</t>
-        </is>
+      <c r="A43" s="2" t="n">
+        <v>45979.70833333334</v>
       </c>
       <c r="B43" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>2025-11-18T18:00</t>
-        </is>
+      <c r="A44" s="2" t="n">
+        <v>45979.75</v>
       </c>
       <c r="B44" t="n">
         <v>7.2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>2025-11-18T19:00</t>
-        </is>
+      <c r="A45" s="2" t="n">
+        <v>45979.79166666666</v>
       </c>
       <c r="B45" t="n">
         <v>6.9</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>2025-11-18T20:00</t>
-        </is>
+      <c r="A46" s="2" t="n">
+        <v>45979.83333333334</v>
       </c>
       <c r="B46" t="n">
         <v>6.6</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>2025-11-18T21:00</t>
-        </is>
+      <c r="A47" s="2" t="n">
+        <v>45979.875</v>
       </c>
       <c r="B47" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>2025-11-18T22:00</t>
-        </is>
+      <c r="A48" s="2" t="n">
+        <v>45979.91666666666</v>
       </c>
       <c r="B48" t="n">
         <v>6.2</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-11-18T23:00</t>
-        </is>
+      <c r="A49" s="2" t="n">
+        <v>45979.95833333334</v>
       </c>
       <c r="B49" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>2025-11-19T00:00</t>
-        </is>
+      <c r="A50" s="2" t="n">
+        <v>45980</v>
       </c>
       <c r="B50" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-19T01:00</t>
-        </is>
+      <c r="A51" s="2" t="n">
+        <v>45980.04166666666</v>
       </c>
       <c r="B51" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2025-11-19T02:00</t>
-        </is>
+      <c r="A52" s="2" t="n">
+        <v>45980.08333333334</v>
       </c>
       <c r="B52" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>2025-11-19T03:00</t>
-        </is>
+      <c r="A53" s="2" t="n">
+        <v>45980.125</v>
       </c>
       <c r="B53" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>2025-11-19T04:00</t>
-        </is>
+      <c r="A54" s="2" t="n">
+        <v>45980.16666666666</v>
       </c>
       <c r="B54" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>2025-11-19T05:00</t>
-        </is>
+      <c r="A55" s="2" t="n">
+        <v>45980.20833333334</v>
       </c>
       <c r="B55" t="n">
         <v>5.6</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>2025-11-19T06:00</t>
-        </is>
+      <c r="A56" s="2" t="n">
+        <v>45980.25</v>
       </c>
       <c r="B56" t="n">
         <v>4.8</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>2025-11-19T07:00</t>
-        </is>
+      <c r="A57" s="2" t="n">
+        <v>45980.29166666666</v>
       </c>
       <c r="B57" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-19T08:00</t>
-        </is>
+      <c r="A58" s="2" t="n">
+        <v>45980.33333333334</v>
       </c>
       <c r="B58" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>2025-11-19T09:00</t>
-        </is>
+      <c r="A59" s="2" t="n">
+        <v>45980.375</v>
       </c>
       <c r="B59" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>2025-11-19T10:00</t>
-        </is>
+      <c r="A60" s="2" t="n">
+        <v>45980.41666666666</v>
       </c>
       <c r="B60" t="n">
         <v>3.2</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>2025-11-19T11:00</t>
-        </is>
+      <c r="A61" s="2" t="n">
+        <v>45980.45833333334</v>
       </c>
       <c r="B61" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>2025-11-19T12:00</t>
-        </is>
+      <c r="A62" s="2" t="n">
+        <v>45980.5</v>
       </c>
       <c r="B62" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>2025-11-19T13:00</t>
-        </is>
+      <c r="A63" s="2" t="n">
+        <v>45980.54166666666</v>
       </c>
       <c r="B63" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2025-11-19T14:00</t>
-        </is>
+      <c r="A64" s="2" t="n">
+        <v>45980.58333333334</v>
       </c>
       <c r="B64" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>2025-11-19T15:00</t>
-        </is>
+      <c r="A65" s="2" t="n">
+        <v>45980.625</v>
       </c>
       <c r="B65" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>2025-11-19T16:00</t>
-        </is>
+      <c r="A66" s="2" t="n">
+        <v>45980.66666666666</v>
       </c>
       <c r="B66" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>2025-11-19T17:00</t>
-        </is>
+      <c r="A67" s="2" t="n">
+        <v>45980.70833333334</v>
       </c>
       <c r="B67" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>2025-11-19T18:00</t>
-        </is>
+      <c r="A68" s="2" t="n">
+        <v>45980.75</v>
       </c>
       <c r="B68" t="n">
         <v>3.4</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>2025-11-19T19:00</t>
-        </is>
+      <c r="A69" s="2" t="n">
+        <v>45980.79166666666</v>
       </c>
       <c r="B69" t="n">
         <v>2.9</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>2025-11-19T20:00</t>
-        </is>
+      <c r="A70" s="2" t="n">
+        <v>45980.83333333334</v>
       </c>
       <c r="B70" t="n">
         <v>2.2</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>2025-11-19T21:00</t>
-        </is>
+      <c r="A71" s="2" t="n">
+        <v>45980.875</v>
       </c>
       <c r="B71" t="n">
         <v>1.7</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>2025-11-19T22:00</t>
-        </is>
+      <c r="A72" s="2" t="n">
+        <v>45980.91666666666</v>
       </c>
       <c r="B72" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>2025-11-19T23:00</t>
-        </is>
+      <c r="A73" s="2" t="n">
+        <v>45980.95833333334</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>2025-11-20T00:00</t>
-        </is>
+      <c r="A74" s="2" t="n">
+        <v>45981</v>
       </c>
       <c r="B74" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>2025-11-20T01:00</t>
-        </is>
+      <c r="A75" s="2" t="n">
+        <v>45981.04166666666</v>
       </c>
       <c r="B75" t="n">
         <v>0.5</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>2025-11-20T02:00</t>
-        </is>
+      <c r="A76" s="2" t="n">
+        <v>45981.08333333334</v>
       </c>
       <c r="B76" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>2025-11-20T03:00</t>
-        </is>
+      <c r="A77" s="2" t="n">
+        <v>45981.125</v>
       </c>
       <c r="B77" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>2025-11-20T04:00</t>
-        </is>
+      <c r="A78" s="2" t="n">
+        <v>45981.16666666666</v>
       </c>
       <c r="B78" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>2025-11-20T05:00</t>
-        </is>
+      <c r="A79" s="2" t="n">
+        <v>45981.20833333334</v>
       </c>
       <c r="B79" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>2025-11-20T06:00</t>
-        </is>
+      <c r="A80" s="2" t="n">
+        <v>45981.25</v>
       </c>
       <c r="B80" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>2025-11-20T07:00</t>
-        </is>
+      <c r="A81" s="2" t="n">
+        <v>45981.29166666666</v>
       </c>
       <c r="B81" t="n">
         <v>-0.1</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>2025-11-20T08:00</t>
-        </is>
+      <c r="A82" s="2" t="n">
+        <v>45981.33333333334</v>
       </c>
       <c r="B82" t="n">
         <v>-0.3</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>2025-11-20T09:00</t>
-        </is>
+      <c r="A83" s="2" t="n">
+        <v>45981.375</v>
       </c>
       <c r="B83" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>2025-11-20T10:00</t>
-        </is>
+      <c r="A84" s="2" t="n">
+        <v>45981.41666666666</v>
       </c>
       <c r="B84" t="n">
         <v>1.1</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>2025-11-20T11:00</t>
-        </is>
+      <c r="A85" s="2" t="n">
+        <v>45981.45833333334</v>
       </c>
       <c r="B85" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>2025-11-20T12:00</t>
-        </is>
+      <c r="A86" s="2" t="n">
+        <v>45981.5</v>
       </c>
       <c r="B86" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>2025-11-20T13:00</t>
-        </is>
+      <c r="A87" s="2" t="n">
+        <v>45981.54166666666</v>
       </c>
       <c r="B87" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>2025-11-20T14:00</t>
-        </is>
+      <c r="A88" s="2" t="n">
+        <v>45981.58333333334</v>
       </c>
       <c r="B88" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>2025-11-20T15:00</t>
-        </is>
+      <c r="A89" s="2" t="n">
+        <v>45981.625</v>
       </c>
       <c r="B89" t="n">
         <v>4.3</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>2025-11-20T16:00</t>
-        </is>
+      <c r="A90" s="2" t="n">
+        <v>45981.66666666666</v>
       </c>
       <c r="B90" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>2025-11-20T17:00</t>
-        </is>
+      <c r="A91" s="2" t="n">
+        <v>45981.70833333334</v>
       </c>
       <c r="B91" t="n">
         <v>2.8</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>2025-11-20T18:00</t>
-        </is>
+      <c r="A92" s="2" t="n">
+        <v>45981.75</v>
       </c>
       <c r="B92" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>2025-11-20T19:00</t>
-        </is>
+      <c r="A93" s="2" t="n">
+        <v>45981.79166666666</v>
       </c>
       <c r="B93" t="n">
         <v>1.4</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>2025-11-20T20:00</t>
-        </is>
+      <c r="A94" s="2" t="n">
+        <v>45981.83333333334</v>
       </c>
       <c r="B94" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>2025-11-20T21:00</t>
-        </is>
+      <c r="A95" s="2" t="n">
+        <v>45981.875</v>
       </c>
       <c r="B95" t="n">
         <v>0.6</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>2025-11-20T22:00</t>
-        </is>
+      <c r="A96" s="2" t="n">
+        <v>45981.91666666666</v>
       </c>
       <c r="B96" t="n">
         <v>0.4</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>2025-11-20T23:00</t>
-        </is>
+      <c r="A97" s="2" t="n">
+        <v>45981.95833333334</v>
       </c>
       <c r="B97" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>2025-11-21T00:00</t>
-        </is>
+      <c r="A98" s="2" t="n">
+        <v>45982</v>
       </c>
       <c r="B98" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>2025-11-21T01:00</t>
-        </is>
+      <c r="A99" s="2" t="n">
+        <v>45982.04166666666</v>
       </c>
       <c r="B99" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>2025-11-21T02:00</t>
-        </is>
+      <c r="A100" s="2" t="n">
+        <v>45982.08333333334</v>
       </c>
       <c r="B100" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>2025-11-21T03:00</t>
-        </is>
+      <c r="A101" s="2" t="n">
+        <v>45982.125</v>
       </c>
       <c r="B101" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>2025-11-21T04:00</t>
-        </is>
+      <c r="A102" s="2" t="n">
+        <v>45982.16666666666</v>
       </c>
       <c r="B102" t="n">
         <v>0.3</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>2025-11-21T05:00</t>
-        </is>
+      <c r="A103" s="2" t="n">
+        <v>45982.20833333334</v>
       </c>
       <c r="B103" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>2025-11-21T06:00</t>
-        </is>
+      <c r="A104" s="2" t="n">
+        <v>45982.25</v>
       </c>
       <c r="B104" t="n">
         <v>0.2</v>
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>2025-11-21T07:00</t>
-        </is>
+      <c r="A105" s="2" t="n">
+        <v>45982.29166666666</v>
       </c>
       <c r="B105" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>2025-11-21T08:00</t>
-        </is>
+      <c r="A106" s="2" t="n">
+        <v>45982.33333333334</v>
       </c>
       <c r="B106" t="n">
         <v>-0.2</v>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>2025-11-21T09:00</t>
-        </is>
+      <c r="A107" s="2" t="n">
+        <v>45982.375</v>
       </c>
       <c r="B107" t="n">
         <v>0.1</v>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>2025-11-21T10:00</t>
-        </is>
+      <c r="A108" s="2" t="n">
+        <v>45982.41666666666</v>
       </c>
       <c r="B108" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>2025-11-21T11:00</t>
-        </is>
+      <c r="A109" s="2" t="n">
+        <v>45982.45833333334</v>
       </c>
       <c r="B109" t="n">
         <v>2.4</v>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>2025-11-21T12:00</t>
-        </is>
+      <c r="A110" s="2" t="n">
+        <v>45982.5</v>
       </c>
       <c r="B110" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>2025-11-21T13:00</t>
-        </is>
+      <c r="A111" s="2" t="n">
+        <v>45982.54166666666</v>
       </c>
       <c r="B111" t="n">
         <v>4.1</v>
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>2025-11-21T14:00</t>
-        </is>
+      <c r="A112" s="2" t="n">
+        <v>45982.58333333334</v>
       </c>
       <c r="B112" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>2025-11-21T15:00</t>
-        </is>
+      <c r="A113" s="2" t="n">
+        <v>45982.625</v>
       </c>
       <c r="B113" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025-11-21T16:00</t>
-        </is>
+      <c r="A114" s="2" t="n">
+        <v>45982.66666666666</v>
       </c>
       <c r="B114" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>2025-11-21T17:00</t>
-        </is>
+      <c r="A115" s="2" t="n">
+        <v>45982.70833333334</v>
       </c>
       <c r="B115" t="n">
         <v>3</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>2025-11-21T18:00</t>
-        </is>
+      <c r="A116" s="2" t="n">
+        <v>45982.75</v>
       </c>
       <c r="B116" t="n">
         <v>2.5</v>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>2025-11-21T19:00</t>
-        </is>
+      <c r="A117" s="2" t="n">
+        <v>45982.79166666666</v>
       </c>
       <c r="B117" t="n">
         <v>2.7</v>
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>2025-11-21T20:00</t>
-        </is>
+      <c r="A118" s="2" t="n">
+        <v>45982.83333333334</v>
       </c>
       <c r="B118" t="n">
         <v>3.3</v>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>2025-11-21T21:00</t>
-        </is>
+      <c r="A119" s="2" t="n">
+        <v>45982.875</v>
       </c>
       <c r="B119" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>2025-11-21T22:00</t>
-        </is>
+      <c r="A120" s="2" t="n">
+        <v>45982.91666666666</v>
       </c>
       <c r="B120" t="n">
         <v>4.4</v>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>2025-11-21T23:00</t>
-        </is>
+      <c r="A121" s="2" t="n">
+        <v>45982.95833333334</v>
       </c>
       <c r="B121" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>2025-11-22T00:00</t>
-        </is>
+      <c r="A122" s="2" t="n">
+        <v>45983</v>
       </c>
       <c r="B122" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>2025-11-22T01:00</t>
-        </is>
+      <c r="A123" s="2" t="n">
+        <v>45983.04166666666</v>
       </c>
       <c r="B123" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>2025-11-22T02:00</t>
-        </is>
+      <c r="A124" s="2" t="n">
+        <v>45983.08333333334</v>
       </c>
       <c r="B124" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>2025-11-22T03:00</t>
-        </is>
+      <c r="A125" s="2" t="n">
+        <v>45983.125</v>
       </c>
       <c r="B125" t="n">
         <v>7.1</v>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>2025-11-22T04:00</t>
-        </is>
+      <c r="A126" s="2" t="n">
+        <v>45983.16666666666</v>
       </c>
       <c r="B126" t="n">
         <v>7.1</v>
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>2025-11-22T05:00</t>
-        </is>
+      <c r="A127" s="2" t="n">
+        <v>45983.20833333334</v>
       </c>
       <c r="B127" t="n">
         <v>6.9</v>
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>2025-11-22T06:00</t>
-        </is>
+      <c r="A128" s="2" t="n">
+        <v>45983.25</v>
       </c>
       <c r="B128" t="n">
         <v>6.7</v>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>2025-11-22T07:00</t>
-        </is>
+      <c r="A129" s="2" t="n">
+        <v>45983.29166666666</v>
       </c>
       <c r="B129" t="n">
         <v>6.5</v>
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>2025-11-22T08:00</t>
-        </is>
+      <c r="A130" s="2" t="n">
+        <v>45983.33333333334</v>
       </c>
       <c r="B130" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>2025-11-22T09:00</t>
-        </is>
+      <c r="A131" s="2" t="n">
+        <v>45983.375</v>
       </c>
       <c r="B131" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>2025-11-22T10:00</t>
-        </is>
+      <c r="A132" s="2" t="n">
+        <v>45983.41666666666</v>
       </c>
       <c r="B132" t="n">
         <v>6.9</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>2025-11-22T11:00</t>
-        </is>
+      <c r="A133" s="2" t="n">
+        <v>45983.45833333334</v>
       </c>
       <c r="B133" t="n">
         <v>8</v>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>2025-11-22T12:00</t>
-        </is>
+      <c r="A134" s="2" t="n">
+        <v>45983.5</v>
       </c>
       <c r="B134" t="n">
         <v>8.800000000000001</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>2025-11-22T13:00</t>
-        </is>
+      <c r="A135" s="2" t="n">
+        <v>45983.54166666666</v>
       </c>
       <c r="B135" t="n">
         <v>9.199999999999999</v>
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>2025-11-22T14:00</t>
-        </is>
+      <c r="A136" s="2" t="n">
+        <v>45983.58333333334</v>
       </c>
       <c r="B136" t="n">
         <v>9.300000000000001</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>2025-11-22T15:00</t>
-        </is>
+      <c r="A137" s="2" t="n">
+        <v>45983.625</v>
       </c>
       <c r="B137" t="n">
         <v>9.1</v>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>2025-11-22T16:00</t>
-        </is>
+      <c r="A138" s="2" t="n">
+        <v>45983.66666666666</v>
       </c>
       <c r="B138" t="n">
         <v>8.4</v>
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>2025-11-22T17:00</t>
-        </is>
+      <c r="A139" s="2" t="n">
+        <v>45983.70833333334</v>
       </c>
       <c r="B139" t="n">
         <v>7.3</v>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>2025-11-22T18:00</t>
-        </is>
+      <c r="A140" s="2" t="n">
+        <v>45983.75</v>
       </c>
       <c r="B140" t="n">
         <v>6.4</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>2025-11-22T19:00</t>
-        </is>
+      <c r="A141" s="2" t="n">
+        <v>45983.79166666666</v>
       </c>
       <c r="B141" t="n">
         <v>5.8</v>
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>2025-11-22T20:00</t>
-        </is>
+      <c r="A142" s="2" t="n">
+        <v>45983.83333333334</v>
       </c>
       <c r="B142" t="n">
         <v>5.3</v>
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>2025-11-22T21:00</t>
-        </is>
+      <c r="A143" s="2" t="n">
+        <v>45983.875</v>
       </c>
       <c r="B143" t="n">
         <v>4.9</v>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>2025-11-22T22:00</t>
-        </is>
+      <c r="A144" s="2" t="n">
+        <v>45983.91666666666</v>
       </c>
       <c r="B144" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>2025-11-22T23:00</t>
-        </is>
+      <c r="A145" s="2" t="n">
+        <v>45983.95833333334</v>
       </c>
       <c r="B145" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>2025-11-23T00:00</t>
-        </is>
+      <c r="A146" s="2" t="n">
+        <v>45984</v>
       </c>
       <c r="B146" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>2025-11-23T01:00</t>
-        </is>
+      <c r="A147" s="2" t="n">
+        <v>45984.04166666666</v>
       </c>
       <c r="B147" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>2025-11-23T02:00</t>
-        </is>
+      <c r="A148" s="2" t="n">
+        <v>45984.08333333334</v>
       </c>
       <c r="B148" t="n">
         <v>3.7</v>
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>2025-11-23T03:00</t>
-        </is>
+      <c r="A149" s="2" t="n">
+        <v>45984.125</v>
       </c>
       <c r="B149" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>2025-11-23T04:00</t>
-        </is>
+      <c r="A150" s="2" t="n">
+        <v>45984.16666666666</v>
       </c>
       <c r="B150" t="n">
         <v>4.2</v>
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>2025-11-23T05:00</t>
-        </is>
+      <c r="A151" s="2" t="n">
+        <v>45984.20833333334</v>
       </c>
       <c r="B151" t="n">
         <v>4.6</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>2025-11-23T06:00</t>
-        </is>
+      <c r="A152" s="2" t="n">
+        <v>45984.25</v>
       </c>
       <c r="B152" t="n">
         <v>5</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>2025-11-23T07:00</t>
-        </is>
+      <c r="A153" s="2" t="n">
+        <v>45984.29166666666</v>
       </c>
       <c r="B153" t="n">
         <v>5.4</v>
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>2025-11-23T08:00</t>
-        </is>
+      <c r="A154" s="2" t="n">
+        <v>45984.33333333334</v>
       </c>
       <c r="B154" t="n">
         <v>5.7</v>
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>2025-11-23T09:00</t>
-        </is>
+      <c r="A155" s="2" t="n">
+        <v>45984.375</v>
       </c>
       <c r="B155" t="n">
         <v>6.1</v>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>2025-11-23T10:00</t>
-        </is>
+      <c r="A156" s="2" t="n">
+        <v>45984.41666666666</v>
       </c>
       <c r="B156" t="n">
         <v>6.8</v>
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>2025-11-23T11:00</t>
-        </is>
+      <c r="A157" s="2" t="n">
+        <v>45984.45833333334</v>
       </c>
       <c r="B157" t="n">
         <v>7.5</v>
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>2025-11-23T12:00</t>
-        </is>
+      <c r="A158" s="2" t="n">
+        <v>45984.5</v>
       </c>
       <c r="B158" t="n">
         <v>8.1</v>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>2025-11-23T13:00</t>
-        </is>
+      <c r="A159" s="2" t="n">
+        <v>45984.54166666666</v>
       </c>
       <c r="B159" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>2025-11-23T14:00</t>
-        </is>
+      <c r="A160" s="2" t="n">
+        <v>45984.58333333334</v>
       </c>
       <c r="B160" t="n">
         <v>8.699999999999999</v>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>2025-11-23T15:00</t>
-        </is>
+      <c r="A161" s="2" t="n">
+        <v>45984.625</v>
       </c>
       <c r="B161" t="n">
         <v>8.5</v>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2025-11-23T16:00</t>
-        </is>
+      <c r="A162" s="2" t="n">
+        <v>45984.66666666666</v>
       </c>
       <c r="B162" t="n">
         <v>7.9</v>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>2025-11-23T17:00</t>
-        </is>
+      <c r="A163" s="2" t="n">
+        <v>45984.70833333334</v>
       </c>
       <c r="B163" t="n">
         <v>6.9</v>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>2025-11-23T18:00</t>
-        </is>
+      <c r="A164" s="2" t="n">
+        <v>45984.75</v>
       </c>
       <c r="B164" t="n">
         <v>5.9</v>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>2025-11-23T19:00</t>
-        </is>
+      <c r="A165" s="2" t="n">
+        <v>45984.79166666666</v>
       </c>
       <c r="B165" t="n">
         <v>5.2</v>
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>2025-11-23T20:00</t>
-        </is>
+      <c r="A166" s="2" t="n">
+        <v>45984.83333333334</v>
       </c>
       <c r="B166" t="n">
         <v>4.5</v>
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>2025-11-23T21:00</t>
-        </is>
+      <c r="A167" s="2" t="n">
+        <v>45984.875</v>
       </c>
       <c r="B167" t="n">
         <v>3.9</v>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>2025-11-23T22:00</t>
-        </is>
+      <c r="A168" s="2" t="n">
+        <v>45984.91666666666</v>
       </c>
       <c r="B168" t="n">
         <v>3.5</v>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>2025-11-23T23:00</t>
-        </is>
+      <c r="A169" s="2" t="n">
+        <v>45984.95833333334</v>
       </c>
       <c r="B169" t="n">
         <v>3.1</v>
